--- a/ApolloQA/Data/RatingManual/SC/VA00065.TotalBASICViolationWeightFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00065.TotalBASICViolationWeightFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.TotalBASICViolationWeightFactors" sheetId="1" r:id="R8ca0023a00bc49e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.TotalBASICViolationWeightFactors" sheetId="1" r:id="R93baade979244725"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -628,6 +628,17 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>76</x:v>
       </x:c>
       <x:c t="str">
